--- a/DataCollection/ArticleExperimentData.xlsx
+++ b/DataCollection/ArticleExperimentData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10520"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abbywysopal/ResponsiveAR/DataCollection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98E3AB66-8BB9-7743-B512-1398FECE4BF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50735E4F-C0FD-5A43-8318-02B46EF8C188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="800" yWindow="2020" windowWidth="28800" windowHeight="17500" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Experiment Data --&gt;" sheetId="7" r:id="rId1"/>
@@ -28,17 +28,15 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ArticleExperimentData!$A$1:$G$45</definedName>
     <definedName name="_xlchart.v1.0" hidden="1">ArticleExperimentData!$D$25:$D$46</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">ArticleExperimentData!$D$2:$D$24</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">ArticleExperimentData!$D$25:$D$46</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">ArticleExperimentData!$D$25:$D$46</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">ArticleExperimentData!$D$2:$D$24</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">ArticleExperimentData!$D$2:$D$46</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">ArticleExperimentData!$D$25:$D$46</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">ArticleExperimentData!$D$2:$D$24</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">ArticleExperimentData!$D$25:$D$46</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">ArticleExperimentData!$D$2:$D$24</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">ArticleExperimentData!$E$25:$E$46</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">ArticleExperimentData!$E$2:$E$24</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">ArticleExperimentData!$D$2:$D$24</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">ArticleExperimentData!$D$2:$D$46</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">ArticleExperimentData!$E$25:$E$46</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">ArticleExperimentData!$E$2:$E$24</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">ArticleExperimentData!$D$25:$D$46</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">ArticleExperimentData!$D$2:$D$24</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">ArticleExperimentData!$D$25:$D$46</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">ArticleExperimentData!$D$2:$D$24</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -541,17 +539,7 @@
           </a:p>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
+              <a:defRPr sz="2000"/>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="2000"/>
@@ -1614,12 +1602,12 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.5</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.4</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1994,12 +1982,12 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.7</cx:f>
+        <cx:f>_xlchart.v1.5</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.6</cx:f>
+        <cx:f>_xlchart.v1.4</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2184,12 +2172,12 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.12</cx:f>
+        <cx:f>_xlchart.v1.7</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.11</cx:f>
+        <cx:f>_xlchart.v1.6</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2377,7 +2365,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.10</cx:f>
+        <cx:f>_xlchart.v1.8</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2552,12 +2540,12 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.8</cx:f>
+        <cx:f>_xlchart.v1.9</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.9</cx:f>
+        <cx:f>_xlchart.v1.10</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -11679,13 +11667,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD652916-8047-B642-9070-F97AE532BDD6}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="93" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" zoomScale="110" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>6</v>
       </c>
@@ -11699,7 +11687,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>113</v>
       </c>
@@ -11713,7 +11701,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>112</v>
       </c>
@@ -11734,7 +11722,7 @@
         <v>0.5849638598610265</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>117</v>
       </c>
@@ -11755,7 +11743,7 @@
         <v>5.9544357756766877E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>118</v>
       </c>
@@ -11776,7 +11764,7 @@
         <v>1.2694899728677447E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>119</v>
       </c>
